--- a/apifile/IlluminationCommandController.xlsx
+++ b/apifile/IlluminationCommandController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6165" yWindow="1650" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -494,7 +494,7 @@
     <row r="2" ht="28.5" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/template/780457119881424896</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/template/788077144778076160</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/isEditable/780457119881424896</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/isEditable/788077144778076160</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/queryExecuteMode</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/queryExecuteMode</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,7 +570,7 @@
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/queryExecuteOperation</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/queryExecuteOperation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -595,7 +595,7 @@
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/queryStrategyPage?pageNum=1&amp;pageSize=10</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/queryStrategyPage?pageNum=1&amp;pageSize=10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'templateName': 'testLQO8WYJB', 'description': '', 'priority': 0, 'executeDateMode': 'DAILY', 'operation': 'LIGHT_ON', 'startEndPeriodDimming': [{'dimmingStartTime': '18:30:00', 'dimmingEndTime': '07:30:00', 'dimmingValue': 105}], 'validStartDate': '2020-11-01', 'validEndDate': '', 'id': '780457119881424896'}</t>
+          <t>{'templateName': 'test0oj2W3yg', 'description': '', 'priority': 0, 'executeDateMode': 'DAILY', 'operation': 'LIGHT_ON', 'startEndPeriodDimming': [{'dimmingStartTime': '18:30:00', 'dimmingEndTime': '07:30:00', 'dimmingValue': 105}], 'validStartDate': '2020-11-01', 'validEndDate': '', 'id': '788077144778076160'}</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="8" ht="28.5" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/queryStrategyDetail?id=780457121169076224</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/queryStrategyDetail?id=788077146288025600</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/switchOnOffStrategy?id=780457121169076224&amp;isTurnOn=true</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/switchOnOffStrategy?id=788077146288025600&amp;isTurnOn=true</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10" ht="99.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/queryTemplate</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/queryTemplate</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -733,7 +733,7 @@
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/template?ids=780457120334409728</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/template?ids=788077145365278720</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -758,7 +758,7 @@
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/illumination/deleteStrategy?id=780457121169076224</t>
+          <t>http://island.iot-cas.com:8081/island/illumination/deleteStrategy?id=788077146288025600</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -782,12 +782,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A10" r:id="rId6"/>
+    <hyperlink ref="A2" display="http://island.dev.iot-cas.com:8081/island/illumination/template/786914236213776384" r:id="rId1"/>
+    <hyperlink ref="A3" display="http://island.dev.iot-cas.com:8081/island/illumination/isEditable/786914236213776384" r:id="rId2"/>
+    <hyperlink ref="A4" display="http://island.dev.iot-cas.com:8081/island/illumination/queryExecuteMode" r:id="rId3"/>
+    <hyperlink ref="A5" display="http://island.dev.iot-cas.com:8081/island/illumination/queryExecuteOperation" r:id="rId4"/>
+    <hyperlink ref="A6" display="http://island.dev.iot-cas.com:8081/island/illumination/queryStrategyPage?pageNum=1&amp;pageSize=10" r:id="rId5"/>
+    <hyperlink ref="A10" display="http://island.dev.iot-cas.com:8081/island/illumination/queryTemplate" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
